--- a/data/pca/factorExposure/factorExposure_2019-05-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-05-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1212839372262734</v>
+        <v>0.07666068338579506</v>
       </c>
       <c r="C2">
-        <v>-0.01344257764460157</v>
+        <v>0.0169637839789273</v>
       </c>
       <c r="D2">
-        <v>-0.02076525265839505</v>
+        <v>-0.03777614992177106</v>
       </c>
       <c r="E2">
-        <v>-0.09717836632470235</v>
+        <v>0.1105097317771949</v>
       </c>
       <c r="F2">
-        <v>0.09569270424664356</v>
+        <v>-0.08436600744164208</v>
       </c>
       <c r="G2">
-        <v>0.1465778428992817</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.08582229319476141</v>
+      </c>
+      <c r="H2">
+        <v>0.0951470992271858</v>
+      </c>
+      <c r="I2">
+        <v>-0.03000894401946949</v>
+      </c>
+      <c r="J2">
+        <v>0.0260227924788874</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2135755194942335</v>
+        <v>0.1622276412912311</v>
       </c>
       <c r="C3">
-        <v>0.08890466347161016</v>
+        <v>0.08568723001290612</v>
       </c>
       <c r="D3">
-        <v>0.07721280108633408</v>
+        <v>0.03432047787155253</v>
       </c>
       <c r="E3">
-        <v>-0.3144351651008276</v>
+        <v>0.2412806705855165</v>
       </c>
       <c r="F3">
-        <v>0.02562711918860882</v>
+        <v>-0.2967438530154665</v>
       </c>
       <c r="G3">
-        <v>0.3739269857396904</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.007254480259872752</v>
+      </c>
+      <c r="H3">
+        <v>0.2914394652380667</v>
+      </c>
+      <c r="I3">
+        <v>-0.148959091481829</v>
+      </c>
+      <c r="J3">
+        <v>0.3225382743224908</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.09937898649761877</v>
+        <v>0.07336276090635835</v>
       </c>
       <c r="C4">
-        <v>0.02709975490390309</v>
+        <v>0.0348257151513843</v>
       </c>
       <c r="D4">
-        <v>-0.003914191172462722</v>
+        <v>-0.02503442274475753</v>
       </c>
       <c r="E4">
-        <v>-0.07489489127758725</v>
+        <v>0.03518572200313362</v>
       </c>
       <c r="F4">
-        <v>0.05324522984397227</v>
+        <v>-0.08832505608159284</v>
       </c>
       <c r="G4">
-        <v>0.03181308828289203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03492180346865973</v>
+      </c>
+      <c r="H4">
+        <v>0.03899096533922881</v>
+      </c>
+      <c r="I4">
+        <v>-0.02986053146753454</v>
+      </c>
+      <c r="J4">
+        <v>0.04691068041127994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01339585689954446</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.003304697244685631</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.0004044040232757451</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.002583098364138569</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.003457481120492857</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01877800795865638</v>
+      </c>
+      <c r="H6">
+        <v>0.002292964355731304</v>
+      </c>
+      <c r="I6">
+        <v>0.001316703839601274</v>
+      </c>
+      <c r="J6">
+        <v>0.0006484674344864148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04307330448391268</v>
+        <v>0.03385378730951758</v>
       </c>
       <c r="C7">
-        <v>0.005215438391640964</v>
+        <v>0.01799185085574953</v>
       </c>
       <c r="D7">
-        <v>-0.02433542022915207</v>
+        <v>-0.01926547148879335</v>
       </c>
       <c r="E7">
-        <v>-0.08399541107858857</v>
+        <v>0.03313825085000958</v>
       </c>
       <c r="F7">
-        <v>-0.03038178319733591</v>
+        <v>-0.0508795655270361</v>
       </c>
       <c r="G7">
-        <v>0.0186277846734855</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.01368942268977287</v>
+      </c>
+      <c r="H7">
+        <v>0.04541826222301563</v>
+      </c>
+      <c r="I7">
+        <v>-0.002391630757657429</v>
+      </c>
+      <c r="J7">
+        <v>0.01560600007368507</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04271329516267256</v>
+        <v>0.03132638539542382</v>
       </c>
       <c r="C8">
-        <v>0.03828464897875985</v>
+        <v>0.03770678120448052</v>
       </c>
       <c r="D8">
-        <v>0.008230284009771676</v>
+        <v>-0.00761604684892327</v>
       </c>
       <c r="E8">
-        <v>-0.07045473381940653</v>
+        <v>0.0355466645485203</v>
       </c>
       <c r="F8">
-        <v>0.002728784471797863</v>
+        <v>-0.0772652446072776</v>
       </c>
       <c r="G8">
-        <v>0.04909316015240967</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.003325609471942362</v>
+      </c>
+      <c r="H8">
+        <v>0.05584101542992327</v>
+      </c>
+      <c r="I8">
+        <v>-0.02998813663403913</v>
+      </c>
+      <c r="J8">
+        <v>0.03955194803933159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08685642420717878</v>
+        <v>0.06317083112034257</v>
       </c>
       <c r="C9">
-        <v>0.02728464714346019</v>
+        <v>0.0346993952501518</v>
       </c>
       <c r="D9">
-        <v>-0.0183790320376753</v>
+        <v>-0.02587247265098279</v>
       </c>
       <c r="E9">
-        <v>-0.06793931661427111</v>
+        <v>0.03212612398788851</v>
       </c>
       <c r="F9">
-        <v>0.03517237007167434</v>
+        <v>-0.08930467620794197</v>
       </c>
       <c r="G9">
-        <v>0.02352270344098706</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.02488596431528894</v>
+      </c>
+      <c r="H9">
+        <v>0.03305797865081866</v>
+      </c>
+      <c r="I9">
+        <v>-0.01060466470682353</v>
+      </c>
+      <c r="J9">
+        <v>0.009421145713962194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.01148098045417903</v>
+        <v>0.01311936567313579</v>
       </c>
       <c r="C10">
-        <v>-0.163235470820303</v>
+        <v>-0.1603935376891153</v>
       </c>
       <c r="D10">
-        <v>0.01368253819371388</v>
+        <v>0.01656185335368111</v>
       </c>
       <c r="E10">
-        <v>-0.04717587177965815</v>
+        <v>0.04793495683259005</v>
       </c>
       <c r="F10">
-        <v>0.01034435976541282</v>
+        <v>-0.03362634780143697</v>
       </c>
       <c r="G10">
-        <v>0.0009779915214924873</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02071831503454758</v>
+      </c>
+      <c r="H10">
+        <v>-0.009716117959209391</v>
+      </c>
+      <c r="I10">
+        <v>-0.116090419365011</v>
+      </c>
+      <c r="J10">
+        <v>0.01421138497168481</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05864266045598894</v>
+        <v>0.04920452660883326</v>
       </c>
       <c r="C11">
-        <v>0.003001271212521686</v>
+        <v>0.02244806190214113</v>
       </c>
       <c r="D11">
-        <v>0.01194277195221159</v>
+        <v>-0.005980125076752914</v>
       </c>
       <c r="E11">
-        <v>-0.03864777953163934</v>
+        <v>0.03821464035923776</v>
       </c>
       <c r="F11">
-        <v>0.008910089900662178</v>
+        <v>-0.02338517245934457</v>
       </c>
       <c r="G11">
-        <v>-0.006394832208219502</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.001846698803614442</v>
+      </c>
+      <c r="H11">
+        <v>0.01691558676806353</v>
+      </c>
+      <c r="I11">
+        <v>0.01673756574740197</v>
+      </c>
+      <c r="J11">
+        <v>0.01246665087945489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04946338158155182</v>
+        <v>0.04775782581786193</v>
       </c>
       <c r="C12">
-        <v>0.007890159424120904</v>
+        <v>0.02197102019486414</v>
       </c>
       <c r="D12">
-        <v>0.007001028587995903</v>
+        <v>-0.007482935330742482</v>
       </c>
       <c r="E12">
-        <v>-0.02548034931583697</v>
+        <v>0.01180990660555119</v>
       </c>
       <c r="F12">
-        <v>0.001958295473584886</v>
+        <v>-0.02164994436527068</v>
       </c>
       <c r="G12">
-        <v>0.0003301782645461284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.002574730260716533</v>
+      </c>
+      <c r="H12">
+        <v>0.00772310758892642</v>
+      </c>
+      <c r="I12">
+        <v>0.02136460935669734</v>
+      </c>
+      <c r="J12">
+        <v>0.005173653229246209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.0589920538106384</v>
+        <v>0.03992769291572215</v>
       </c>
       <c r="C13">
-        <v>0.01844831464479814</v>
+        <v>0.02216660152269667</v>
       </c>
       <c r="D13">
-        <v>0.02347638280444012</v>
+        <v>-0.006777763166303427</v>
       </c>
       <c r="E13">
-        <v>-0.1080350981827942</v>
+        <v>0.08059597064037706</v>
       </c>
       <c r="F13">
-        <v>0.02550048908908134</v>
+        <v>-0.06542828269809199</v>
       </c>
       <c r="G13">
-        <v>0.05336294695995415</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.004682734464380855</v>
+      </c>
+      <c r="H13">
+        <v>0.05975269848833097</v>
+      </c>
+      <c r="I13">
+        <v>-0.01132923397193557</v>
+      </c>
+      <c r="J13">
+        <v>0.01917809546851111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03670914491062133</v>
+        <v>0.02740320854744875</v>
       </c>
       <c r="C14">
-        <v>0.008460549583302177</v>
+        <v>0.01489930764856292</v>
       </c>
       <c r="D14">
-        <v>-0.01609707756249111</v>
+        <v>-0.02239539056459421</v>
       </c>
       <c r="E14">
-        <v>-0.02404715545714976</v>
+        <v>0.01894427239642798</v>
       </c>
       <c r="F14">
-        <v>-0.003678744914562129</v>
+        <v>-0.03502332212455143</v>
       </c>
       <c r="G14">
-        <v>0.04999115478134122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.01073865397022481</v>
+      </c>
+      <c r="H14">
+        <v>0.0609065221943809</v>
+      </c>
+      <c r="I14">
+        <v>-0.02072747249222235</v>
+      </c>
+      <c r="J14">
+        <v>-0.005260566483867492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.05059786134483789</v>
+        <v>0.04244618122445642</v>
       </c>
       <c r="C16">
-        <v>0.02113023325839048</v>
+        <v>0.03005047300351489</v>
       </c>
       <c r="D16">
-        <v>0.02022818126351296</v>
+        <v>-0.00129183521834189</v>
       </c>
       <c r="E16">
-        <v>-0.03250326393883423</v>
+        <v>0.03098162489823625</v>
       </c>
       <c r="F16">
-        <v>0.001507065869572928</v>
+        <v>-0.02267512486083217</v>
       </c>
       <c r="G16">
-        <v>-0.01125479390599702</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.006078031113414981</v>
+      </c>
+      <c r="H16">
+        <v>0.01600592401701892</v>
+      </c>
+      <c r="I16">
+        <v>0.01523880552767151</v>
+      </c>
+      <c r="J16">
+        <v>0.01202514974614966</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.05072287096077237</v>
+        <v>0.04378019258553618</v>
       </c>
       <c r="C19">
-        <v>0.0314960688317922</v>
+        <v>0.03627069715464741</v>
       </c>
       <c r="D19">
-        <v>0.009327018592949488</v>
+        <v>-0.009396785808919507</v>
       </c>
       <c r="E19">
-        <v>-0.07700746094757252</v>
+        <v>0.06128995010672178</v>
       </c>
       <c r="F19">
-        <v>-0.001669461921261025</v>
+        <v>-0.06842189958757366</v>
       </c>
       <c r="G19">
-        <v>0.06727680727971594</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.006509486577198906</v>
+      </c>
+      <c r="H19">
+        <v>0.08820893207905502</v>
+      </c>
+      <c r="I19">
+        <v>-0.04530786504212932</v>
+      </c>
+      <c r="J19">
+        <v>0.01568987759525303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03767005546375904</v>
+        <v>0.01898814517928417</v>
       </c>
       <c r="C20">
-        <v>0.03375276030084785</v>
+        <v>0.03343274224882132</v>
       </c>
       <c r="D20">
-        <v>-0.002198426319077675</v>
+        <v>-0.01612002112042694</v>
       </c>
       <c r="E20">
-        <v>-0.06620609309956291</v>
+        <v>0.03908490843274083</v>
       </c>
       <c r="F20">
-        <v>-0.01510079510939585</v>
+        <v>-0.05960245556524613</v>
       </c>
       <c r="G20">
-        <v>0.04914252293776782</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01398791030619381</v>
+      </c>
+      <c r="H20">
+        <v>0.07595886563910299</v>
+      </c>
+      <c r="I20">
+        <v>-0.01786856242911067</v>
+      </c>
+      <c r="J20">
+        <v>0.04751542617144419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.0370923328457553</v>
+        <v>0.01748556623779259</v>
       </c>
       <c r="C21">
-        <v>0.01637148960982293</v>
+        <v>0.02467727550083608</v>
       </c>
       <c r="D21">
-        <v>0.018922276929392</v>
+        <v>0.003624177933536125</v>
       </c>
       <c r="E21">
-        <v>-0.08512146442322739</v>
+        <v>0.0426006893959098</v>
       </c>
       <c r="F21">
-        <v>0.04568220519602519</v>
+        <v>-0.06803159840740644</v>
       </c>
       <c r="G21">
-        <v>0.05516361617530389</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.01685084392357689</v>
+      </c>
+      <c r="H21">
+        <v>0.04503667084576097</v>
+      </c>
+      <c r="I21">
+        <v>0.005353019465722037</v>
+      </c>
+      <c r="J21">
+        <v>-0.01257681769148828</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.0460945195992694</v>
+        <v>0.03991925854489377</v>
       </c>
       <c r="C24">
-        <v>0.01185150592643401</v>
+        <v>0.01905440674342795</v>
       </c>
       <c r="D24">
-        <v>0.008467491611033806</v>
+        <v>-0.006019310805294114</v>
       </c>
       <c r="E24">
-        <v>-0.04750550698917168</v>
+        <v>0.03549833872001249</v>
       </c>
       <c r="F24">
-        <v>0.006758953924096936</v>
+        <v>-0.02885818272478648</v>
       </c>
       <c r="G24">
-        <v>-0.012632742029834</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.01053372980657962</v>
+      </c>
+      <c r="H24">
+        <v>0.01282579247116066</v>
+      </c>
+      <c r="I24">
+        <v>0.01080661150208671</v>
+      </c>
+      <c r="J24">
+        <v>0.01733922188693297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.04921327376101521</v>
+        <v>0.04300312094566267</v>
       </c>
       <c r="C25">
-        <v>0.003106611766521272</v>
+        <v>0.02008097861775795</v>
       </c>
       <c r="D25">
-        <v>0.01151253814403178</v>
+        <v>-0.003225958589597271</v>
       </c>
       <c r="E25">
-        <v>-0.03867179238734752</v>
+        <v>0.03580671147748191</v>
       </c>
       <c r="F25">
-        <v>0.01043283700184815</v>
+        <v>-0.03285602283874679</v>
       </c>
       <c r="G25">
-        <v>-0.005630083078848315</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.002706006673959469</v>
+      </c>
+      <c r="H25">
+        <v>0.01031623206272385</v>
+      </c>
+      <c r="I25">
+        <v>0.01519952717447083</v>
+      </c>
+      <c r="J25">
+        <v>0.008051030021515929</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.003833090356402377</v>
+        <v>0.01068467427011371</v>
       </c>
       <c r="C26">
-        <v>0.01642956593550552</v>
+        <v>0.01737982999049676</v>
       </c>
       <c r="D26">
-        <v>-0.003200613284612245</v>
+        <v>0.00160039961005114</v>
       </c>
       <c r="E26">
-        <v>-0.05002900022095869</v>
+        <v>0.04375457708586346</v>
       </c>
       <c r="F26">
-        <v>0.02539713936442737</v>
+        <v>-0.03105404332053192</v>
       </c>
       <c r="G26">
-        <v>0.02486134813949089</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.008819859089473966</v>
+      </c>
+      <c r="H26">
+        <v>0.03853120698308064</v>
+      </c>
+      <c r="I26">
+        <v>0.0005009694569041104</v>
+      </c>
+      <c r="J26">
+        <v>0.01698846139134112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1133648409753699</v>
+        <v>0.08727417678402155</v>
       </c>
       <c r="C27">
-        <v>0.01633288474417578</v>
+        <v>0.02744168887818093</v>
       </c>
       <c r="D27">
-        <v>-0.003931142817368866</v>
+        <v>-0.02916765136948853</v>
       </c>
       <c r="E27">
-        <v>-0.111959546909008</v>
+        <v>0.04563398681336675</v>
       </c>
       <c r="F27">
-        <v>0.02132083313972243</v>
+        <v>-0.07481297640213108</v>
       </c>
       <c r="G27">
-        <v>-0.01159898541060187</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.0006306702495084873</v>
+      </c>
+      <c r="H27">
+        <v>0.0137744972875721</v>
+      </c>
+      <c r="I27">
+        <v>-0.00448488558887054</v>
+      </c>
+      <c r="J27">
+        <v>0.03004765346223373</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.01343612185676399</v>
+        <v>0.02442867858166868</v>
       </c>
       <c r="C28">
-        <v>-0.2402403412044336</v>
+        <v>-0.2323615111608209</v>
       </c>
       <c r="D28">
-        <v>0.02285990228789557</v>
+        <v>0.02452762594672473</v>
       </c>
       <c r="E28">
-        <v>-0.02772997084831106</v>
+        <v>0.0403796214591164</v>
       </c>
       <c r="F28">
-        <v>0.01290634996083817</v>
+        <v>-0.02721025477783496</v>
       </c>
       <c r="G28">
-        <v>-0.03282803695537485</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02588045235109778</v>
+      </c>
+      <c r="H28">
+        <v>-0.0335208704568541</v>
+      </c>
+      <c r="I28">
+        <v>-0.1649510609935123</v>
+      </c>
+      <c r="J28">
+        <v>0.03116846367610825</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.01994799494080859</v>
+        <v>0.01899435402816651</v>
       </c>
       <c r="C29">
-        <v>0.01805959688766548</v>
+        <v>0.0182518801244555</v>
       </c>
       <c r="D29">
-        <v>-0.01922884104911664</v>
+        <v>-0.02150374679935235</v>
       </c>
       <c r="E29">
-        <v>-0.03315862393308458</v>
+        <v>0.01404380169230898</v>
       </c>
       <c r="F29">
-        <v>0.01048325591446227</v>
+        <v>-0.04019337256697365</v>
       </c>
       <c r="G29">
-        <v>0.0487098328053055</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.01216875873558037</v>
+      </c>
+      <c r="H29">
+        <v>0.0577369055904489</v>
+      </c>
+      <c r="I29">
+        <v>-0.01157850909502362</v>
+      </c>
+      <c r="J29">
+        <v>-0.01513185301858365</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1041638574933688</v>
+        <v>0.09806101140901312</v>
       </c>
       <c r="C30">
-        <v>0.009807280205557285</v>
+        <v>0.03586894762233207</v>
       </c>
       <c r="D30">
-        <v>-0.002277767146414665</v>
+        <v>-0.0309276153547044</v>
       </c>
       <c r="E30">
-        <v>-0.1268954789345799</v>
+        <v>0.08906152140480521</v>
       </c>
       <c r="F30">
-        <v>0.03512078647065697</v>
+        <v>-0.07086317768879039</v>
       </c>
       <c r="G30">
-        <v>-0.06738166936237341</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01619218939687001</v>
+      </c>
+      <c r="H30">
+        <v>0.01333759565715288</v>
+      </c>
+      <c r="I30">
+        <v>0.0302885673603785</v>
+      </c>
+      <c r="J30">
+        <v>-0.001675048064339397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05682433119757573</v>
+        <v>0.05911941880836771</v>
       </c>
       <c r="C31">
-        <v>0.01135264067128768</v>
+        <v>0.01836773815875875</v>
       </c>
       <c r="D31">
-        <v>-0.02033085025335306</v>
+        <v>-0.01920937093073618</v>
       </c>
       <c r="E31">
-        <v>0.01984721444212043</v>
+        <v>0.01253567815114584</v>
       </c>
       <c r="F31">
-        <v>0.005707640755113037</v>
+        <v>0.00664704335033987</v>
       </c>
       <c r="G31">
-        <v>0.02311478491472256</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.0324603489227061</v>
+      </c>
+      <c r="H31">
+        <v>0.04839661647663426</v>
+      </c>
+      <c r="I31">
+        <v>-0.01877496133075637</v>
+      </c>
+      <c r="J31">
+        <v>-0.01558237276984446</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.06660346543083684</v>
+        <v>0.04540828591608831</v>
       </c>
       <c r="C32">
-        <v>0.02712791115363722</v>
+        <v>0.04379481325343786</v>
       </c>
       <c r="D32">
-        <v>0.002739209521001297</v>
+        <v>-0.02233247741653829</v>
       </c>
       <c r="E32">
-        <v>-0.1233925791041507</v>
+        <v>0.05586406498924018</v>
       </c>
       <c r="F32">
-        <v>-0.00446130381333631</v>
+        <v>-0.08206328767159027</v>
       </c>
       <c r="G32">
-        <v>0.04598991934546136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.0144839087404022</v>
+      </c>
+      <c r="H32">
+        <v>0.05527238960679309</v>
+      </c>
+      <c r="I32">
+        <v>-0.02411484870168577</v>
+      </c>
+      <c r="J32">
+        <v>-0.002286639790167142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.0689472877143481</v>
+        <v>0.05761112062052733</v>
       </c>
       <c r="C33">
-        <v>0.02872615215337375</v>
+        <v>0.04491021182895447</v>
       </c>
       <c r="D33">
-        <v>-0.00125732426679533</v>
+        <v>-0.006709230552421402</v>
       </c>
       <c r="E33">
-        <v>-0.06918280644225568</v>
+        <v>0.06310139970202633</v>
       </c>
       <c r="F33">
-        <v>0.04142462448491269</v>
+        <v>-0.05527523852722147</v>
       </c>
       <c r="G33">
-        <v>0.03018337879611377</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.0157134404232695</v>
+      </c>
+      <c r="H33">
+        <v>0.05366767156937583</v>
+      </c>
+      <c r="I33">
+        <v>0.0127066386124773</v>
+      </c>
+      <c r="J33">
+        <v>0.01129253579949462</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04692152343073495</v>
+        <v>0.04142941671238524</v>
       </c>
       <c r="C34">
-        <v>0.01146594189873755</v>
+        <v>0.02445901805910926</v>
       </c>
       <c r="D34">
-        <v>0.008656589196309367</v>
+        <v>-0.008951942212513978</v>
       </c>
       <c r="E34">
-        <v>-0.02364000927077577</v>
+        <v>0.0260447052092651</v>
       </c>
       <c r="F34">
-        <v>-0.002825624143801202</v>
+        <v>-0.0248815415694325</v>
       </c>
       <c r="G34">
-        <v>0.01061814304929407</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.001238802355524494</v>
+      </c>
+      <c r="H34">
+        <v>0.02019030488978349</v>
+      </c>
+      <c r="I34">
+        <v>0.01497257938223097</v>
+      </c>
+      <c r="J34">
+        <v>0.001088993092783524</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01310419796080254</v>
+        <v>0.01458874677177133</v>
       </c>
       <c r="C36">
-        <v>-0.009942037775111582</v>
+        <v>0.001214987614038848</v>
       </c>
       <c r="D36">
-        <v>-0.004412827551590418</v>
+        <v>-0.007451146610430284</v>
       </c>
       <c r="E36">
-        <v>-0.02245973449203295</v>
+        <v>0.01650653249309244</v>
       </c>
       <c r="F36">
-        <v>0.01108388705520737</v>
+        <v>-0.02470759890522258</v>
       </c>
       <c r="G36">
-        <v>0.01946007763298378</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01398417349072857</v>
+      </c>
+      <c r="H36">
+        <v>0.03411276127142243</v>
+      </c>
+      <c r="I36">
+        <v>-0.006107983954424199</v>
+      </c>
+      <c r="J36">
+        <v>-0.01526912321740343</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05406349520200197</v>
+        <v>0.03011070748742089</v>
       </c>
       <c r="C38">
-        <v>0.002529247494891256</v>
+        <v>0.008036841395797439</v>
       </c>
       <c r="D38">
-        <v>-0.02038760635570248</v>
+        <v>-0.007700520362311499</v>
       </c>
       <c r="E38">
-        <v>-0.03463181611976768</v>
+        <v>0.02990771229885271</v>
       </c>
       <c r="F38">
-        <v>0.01113274301913273</v>
+        <v>-0.04306145940817366</v>
       </c>
       <c r="G38">
-        <v>0.03695435058690235</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02181268030549</v>
+      </c>
+      <c r="H38">
+        <v>0.02014754280864538</v>
+      </c>
+      <c r="I38">
+        <v>0.0008752921419688285</v>
+      </c>
+      <c r="J38">
+        <v>-0.02865454372903778</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07516919638782682</v>
+        <v>0.05811649790896524</v>
       </c>
       <c r="C39">
-        <v>0.0137499108946564</v>
+        <v>0.03595707652482396</v>
       </c>
       <c r="D39">
-        <v>0.005993854044759023</v>
+        <v>-0.01704905299835034</v>
       </c>
       <c r="E39">
-        <v>-0.04452505037389426</v>
+        <v>0.05231658026591073</v>
       </c>
       <c r="F39">
-        <v>0.02751371200338167</v>
+        <v>-0.03312354968734696</v>
       </c>
       <c r="G39">
-        <v>-0.004665626277201953</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.01154935012965512</v>
+      </c>
+      <c r="H39">
+        <v>0.01831981416882577</v>
+      </c>
+      <c r="I39">
+        <v>0.03186322341675801</v>
+      </c>
+      <c r="J39">
+        <v>0.007787005936074468</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.07209378160619601</v>
+        <v>0.05630476261086264</v>
       </c>
       <c r="C40">
-        <v>0.02939696125432791</v>
+        <v>0.03451745007133505</v>
       </c>
       <c r="D40">
-        <v>0.01117209276317885</v>
+        <v>-0.02349615443332361</v>
       </c>
       <c r="E40">
-        <v>-0.1085739318779958</v>
+        <v>0.0902514949288116</v>
       </c>
       <c r="F40">
-        <v>0.03678356674807763</v>
+        <v>-0.0630575118665522</v>
       </c>
       <c r="G40">
-        <v>0.09598418874300653</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.000662798934544129</v>
+      </c>
+      <c r="H40">
+        <v>0.08377411633044206</v>
+      </c>
+      <c r="I40">
+        <v>-0.006593174888792222</v>
+      </c>
+      <c r="J40">
+        <v>0.04310265985950225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.003987900058336127</v>
+        <v>0.001018995594224247</v>
       </c>
       <c r="C41">
-        <v>0.01177289312749932</v>
+        <v>0.01034414696043282</v>
       </c>
       <c r="D41">
-        <v>-0.01435652631679401</v>
+        <v>-0.005094351358187981</v>
       </c>
       <c r="E41">
-        <v>-0.01001493983803705</v>
+        <v>0.007406648172107369</v>
       </c>
       <c r="F41">
-        <v>0.02137053504698761</v>
+        <v>-0.01545143011044298</v>
       </c>
       <c r="G41">
-        <v>0.03333210026960291</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.02508456703341881</v>
+      </c>
+      <c r="H41">
+        <v>0.04093260114579341</v>
+      </c>
+      <c r="I41">
+        <v>-0.02581140339273257</v>
+      </c>
+      <c r="J41">
+        <v>0.001600423301783753</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1321815667442089</v>
+        <v>0.2330458809969417</v>
       </c>
       <c r="C42">
-        <v>0.18320705091477</v>
+        <v>0.1635970163311562</v>
       </c>
       <c r="D42">
-        <v>0.9230604253570073</v>
+        <v>0.9101702084839879</v>
       </c>
       <c r="E42">
-        <v>0.1399799602596634</v>
+        <v>0.02209746525264718</v>
       </c>
       <c r="F42">
-        <v>-0.02002089001450518</v>
+        <v>0.240866321568952</v>
       </c>
       <c r="G42">
-        <v>-0.1465290652536847</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.003864260901058022</v>
+      </c>
+      <c r="H42">
+        <v>-0.005879329219886905</v>
+      </c>
+      <c r="I42">
+        <v>-0.05837059088243589</v>
+      </c>
+      <c r="J42">
+        <v>0.008156226875429795</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.007446564497048605</v>
+        <v>0.002843242709772339</v>
       </c>
       <c r="C43">
-        <v>0.0152041010803046</v>
+        <v>0.0131836592331442</v>
       </c>
       <c r="D43">
-        <v>-0.01385578039843517</v>
+        <v>-0.005923531759078375</v>
       </c>
       <c r="E43">
-        <v>-0.03323446931456852</v>
+        <v>0.01773999916204193</v>
       </c>
       <c r="F43">
-        <v>-0.0007510566348132994</v>
+        <v>-0.02303900940977033</v>
       </c>
       <c r="G43">
-        <v>0.02645069322759513</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.006092140109065163</v>
+      </c>
+      <c r="H43">
+        <v>0.03918014052295361</v>
+      </c>
+      <c r="I43">
+        <v>-0.01638323421723387</v>
+      </c>
+      <c r="J43">
+        <v>0.004248221813770881</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.04228027268259003</v>
+        <v>0.02783208600831431</v>
       </c>
       <c r="C44">
-        <v>0.03556442067530639</v>
+        <v>0.03200539825849319</v>
       </c>
       <c r="D44">
-        <v>0.006286158290030161</v>
+        <v>-0.001874087129461445</v>
       </c>
       <c r="E44">
-        <v>-0.1073457989196027</v>
+        <v>0.08042152978494166</v>
       </c>
       <c r="F44">
-        <v>0.07089112905465128</v>
+        <v>-0.09023269190031347</v>
       </c>
       <c r="G44">
-        <v>0.1502186479554411</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.02705422303236929</v>
+      </c>
+      <c r="H44">
+        <v>0.1208846927358417</v>
+      </c>
+      <c r="I44">
+        <v>-0.02516218301403862</v>
+      </c>
+      <c r="J44">
+        <v>0.01055749240334782</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02100121924668159</v>
+        <v>0.02104589554645199</v>
       </c>
       <c r="C46">
-        <v>0.01443123440120077</v>
+        <v>0.02509130836282973</v>
       </c>
       <c r="D46">
-        <v>-0.02145561678548103</v>
+        <v>-0.01947053154537886</v>
       </c>
       <c r="E46">
-        <v>-0.02290869827799514</v>
+        <v>0.02915532764814985</v>
       </c>
       <c r="F46">
-        <v>0.0268873494945065</v>
+        <v>-0.03623449325816035</v>
       </c>
       <c r="G46">
-        <v>0.05201001042035958</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.01535252522679694</v>
+      </c>
+      <c r="H46">
+        <v>0.06291989299166935</v>
+      </c>
+      <c r="I46">
+        <v>-0.01836795702861221</v>
+      </c>
+      <c r="J46">
+        <v>0.008751249826601163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.07989246235490788</v>
+        <v>0.0885323580477726</v>
       </c>
       <c r="C47">
-        <v>0.007688234787646772</v>
+        <v>0.01771834299916795</v>
       </c>
       <c r="D47">
-        <v>-0.02214911865038366</v>
+        <v>-0.02385716359762096</v>
       </c>
       <c r="E47">
-        <v>0.01849372884966684</v>
+        <v>-0.002851391069347968</v>
       </c>
       <c r="F47">
-        <v>0.0007491700011951895</v>
+        <v>0.004585956466698869</v>
       </c>
       <c r="G47">
-        <v>0.04661049843300973</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.02868589360757989</v>
+      </c>
+      <c r="H47">
+        <v>0.06673880323817405</v>
+      </c>
+      <c r="I47">
+        <v>-0.02661582853229782</v>
+      </c>
+      <c r="J47">
+        <v>-0.002522718342483592</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01460328611264084</v>
+        <v>0.01537854980099904</v>
       </c>
       <c r="C48">
-        <v>0.01585128212980031</v>
+        <v>0.01887414134476094</v>
       </c>
       <c r="D48">
-        <v>-0.01180469022511417</v>
+        <v>-0.009065486893036597</v>
       </c>
       <c r="E48">
-        <v>-0.03485003386623216</v>
+        <v>0.01885973462691206</v>
       </c>
       <c r="F48">
-        <v>0.01981402024480153</v>
+        <v>-0.03214979402269139</v>
       </c>
       <c r="G48">
-        <v>0.0123020067165512</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.008634395271770732</v>
+      </c>
+      <c r="H48">
+        <v>0.0246548734040486</v>
+      </c>
+      <c r="I48">
+        <v>-0.01753822915102112</v>
+      </c>
+      <c r="J48">
+        <v>0.001997142603045559</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.07805858749863846</v>
+        <v>0.081423537520371</v>
       </c>
       <c r="C50">
-        <v>0.01956069986514692</v>
+        <v>0.02856070740719627</v>
       </c>
       <c r="D50">
-        <v>-0.02507638750246885</v>
+        <v>-0.02002927483131732</v>
       </c>
       <c r="E50">
-        <v>0.02796139046697814</v>
+        <v>-0.003763420842316356</v>
       </c>
       <c r="F50">
-        <v>-0.001165162564230513</v>
+        <v>-0.003256061611274904</v>
       </c>
       <c r="G50">
-        <v>0.02317900082838188</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.00134071813260544</v>
+      </c>
+      <c r="H50">
+        <v>0.05124931228043357</v>
+      </c>
+      <c r="I50">
+        <v>-0.0113300407820081</v>
+      </c>
+      <c r="J50">
+        <v>-0.04883991624746558</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.06992339616307137</v>
+        <v>0.04665931813934777</v>
       </c>
       <c r="C51">
-        <v>-0.0199979093841616</v>
+        <v>-0.003009357413028791</v>
       </c>
       <c r="D51">
-        <v>0.01059444923514924</v>
+        <v>-0.0090853258305027</v>
       </c>
       <c r="E51">
-        <v>-0.07161542195521949</v>
+        <v>0.07906676382821698</v>
       </c>
       <c r="F51">
-        <v>0.06122103786448908</v>
+        <v>-0.05305506511395298</v>
       </c>
       <c r="G51">
-        <v>0.04300802528295612</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.04462196840310798</v>
+      </c>
+      <c r="H51">
+        <v>0.06464303014591853</v>
+      </c>
+      <c r="I51">
+        <v>-0.03846325506611022</v>
+      </c>
+      <c r="J51">
+        <v>0.004813096310282094</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1450068381941576</v>
+        <v>0.1298194783212425</v>
       </c>
       <c r="C53">
-        <v>0.01192285950001897</v>
+        <v>0.03522902549362795</v>
       </c>
       <c r="D53">
-        <v>-0.04821813696171062</v>
+        <v>-0.04883991224562218</v>
       </c>
       <c r="E53">
-        <v>0.03207966632375028</v>
+        <v>-0.02475563070274323</v>
       </c>
       <c r="F53">
-        <v>-0.006918049846485932</v>
+        <v>0.02175523229533266</v>
       </c>
       <c r="G53">
-        <v>0.007890953184819473</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.0227084848838034</v>
+      </c>
+      <c r="H53">
+        <v>0.01024290853291426</v>
+      </c>
+      <c r="I53">
+        <v>-0.0335617219585773</v>
+      </c>
+      <c r="J53">
+        <v>0.04941574858937395</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02576925989479925</v>
+        <v>0.02398018119136468</v>
       </c>
       <c r="C54">
-        <v>-0.004378463212568919</v>
+        <v>0.007856217427743527</v>
       </c>
       <c r="D54">
-        <v>-0.02066814014632245</v>
+        <v>-0.02411530303163582</v>
       </c>
       <c r="E54">
-        <v>-0.03342189347004811</v>
+        <v>0.01680093966600401</v>
       </c>
       <c r="F54">
-        <v>0.03555449669794043</v>
+        <v>-0.04150064077417052</v>
       </c>
       <c r="G54">
-        <v>0.05929512958575822</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.02505195729823699</v>
+      </c>
+      <c r="H54">
+        <v>0.06313231270583773</v>
+      </c>
+      <c r="I54">
+        <v>-0.03619427033823221</v>
+      </c>
+      <c r="J54">
+        <v>-0.0213198744928749</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09754117427825915</v>
+        <v>0.1019319296226239</v>
       </c>
       <c r="C55">
-        <v>-0.001521317102506071</v>
+        <v>0.01967537167903287</v>
       </c>
       <c r="D55">
-        <v>-0.0402581081694843</v>
+        <v>-0.03090145916290655</v>
       </c>
       <c r="E55">
-        <v>-0.004098815910735561</v>
+        <v>-0.03529419855217426</v>
       </c>
       <c r="F55">
-        <v>-0.02728849416553513</v>
+        <v>-0.005283477937756477</v>
       </c>
       <c r="G55">
-        <v>-0.003483356530075908</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01259844163137003</v>
+      </c>
+      <c r="H55">
+        <v>0.0250549126915052</v>
+      </c>
+      <c r="I55">
+        <v>-0.01399759766479092</v>
+      </c>
+      <c r="J55">
+        <v>0.04062032747625399</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1781016984358839</v>
+        <v>0.1696824332809427</v>
       </c>
       <c r="C56">
-        <v>-0.01718949505942665</v>
+        <v>0.01672829446887167</v>
       </c>
       <c r="D56">
-        <v>-0.08361666219352856</v>
+        <v>-0.08398477891283079</v>
       </c>
       <c r="E56">
-        <v>0.05591258422879012</v>
+        <v>-0.06514052149706602</v>
       </c>
       <c r="F56">
-        <v>-0.0634568536669609</v>
+        <v>0.03668752939218534</v>
       </c>
       <c r="G56">
-        <v>-0.02371736043334742</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.02141247375261178</v>
+      </c>
+      <c r="H56">
+        <v>-0.03492450859496117</v>
+      </c>
+      <c r="I56">
+        <v>0.005056390194268961</v>
+      </c>
+      <c r="J56">
+        <v>0.07214189819851621</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.09047519115685057</v>
+        <v>0.06979615664744106</v>
       </c>
       <c r="C57">
-        <v>0.02126730755256023</v>
+        <v>0.02862103925387976</v>
       </c>
       <c r="D57">
-        <v>-0.02062895038931987</v>
+        <v>-0.01270800508405591</v>
       </c>
       <c r="E57">
-        <v>-0.06573117066224911</v>
+        <v>0.05441863756771819</v>
       </c>
       <c r="F57">
-        <v>0.01371528324938908</v>
+        <v>-0.04629533204853745</v>
       </c>
       <c r="G57">
-        <v>0.04779965161885515</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.003306554448681655</v>
+      </c>
+      <c r="H57">
+        <v>0.04440805996339797</v>
+      </c>
+      <c r="I57">
+        <v>0.01165424941883603</v>
+      </c>
+      <c r="J57">
+        <v>0.03638528315249137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1637157749194197</v>
+        <v>0.1933127878242339</v>
       </c>
       <c r="C58">
-        <v>-0.005234233717267779</v>
+        <v>0.04400149687017339</v>
       </c>
       <c r="D58">
-        <v>0.07058221425747155</v>
+        <v>0.01235869577684659</v>
       </c>
       <c r="E58">
-        <v>-0.1344188645212581</v>
+        <v>0.1586956686577214</v>
       </c>
       <c r="F58">
-        <v>-0.08453116303644879</v>
+        <v>-0.1139704203007525</v>
       </c>
       <c r="G58">
-        <v>0.2983876354198101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1792117148979345</v>
+      </c>
+      <c r="H58">
+        <v>0.3109885919271905</v>
+      </c>
+      <c r="I58">
+        <v>-0.05517349159801058</v>
+      </c>
+      <c r="J58">
+        <v>-0.6190243168107153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.001992593842436341</v>
+        <v>0.02845946156317915</v>
       </c>
       <c r="C59">
-        <v>-0.2037655136523253</v>
+        <v>-0.1983695504091989</v>
       </c>
       <c r="D59">
-        <v>-0.01097315255367165</v>
+        <v>-0.01126259445702082</v>
       </c>
       <c r="E59">
-        <v>-0.04780846324970525</v>
+        <v>0.06210871178470587</v>
       </c>
       <c r="F59">
-        <v>0.0151579490802265</v>
+        <v>-0.02347786107695168</v>
       </c>
       <c r="G59">
-        <v>-0.03164744760943472</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.004479075050782762</v>
+      </c>
+      <c r="H59">
+        <v>-0.02574514210646409</v>
+      </c>
+      <c r="I59">
+        <v>-0.07707897507370765</v>
+      </c>
+      <c r="J59">
+        <v>-0.02189539104841554</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1860590096874333</v>
+        <v>0.1838829315515089</v>
       </c>
       <c r="C60">
-        <v>-0.1142768117940281</v>
+        <v>-0.05387003320961586</v>
       </c>
       <c r="D60">
-        <v>-0.01149710923684995</v>
+        <v>-0.02701886763597429</v>
       </c>
       <c r="E60">
-        <v>-0.1731705551248321</v>
+        <v>0.2049962210979725</v>
       </c>
       <c r="F60">
-        <v>0.06719818728008738</v>
+        <v>-0.08312485417432076</v>
       </c>
       <c r="G60">
-        <v>-0.1644580297765507</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.04637227378828804</v>
+      </c>
+      <c r="H60">
+        <v>-0.2318793802018463</v>
+      </c>
+      <c r="I60">
+        <v>0.1078479198589683</v>
+      </c>
+      <c r="J60">
+        <v>0.003114031385425328</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.04782311101650256</v>
+        <v>0.03739996071513382</v>
       </c>
       <c r="C61">
-        <v>0.004782712607275663</v>
+        <v>0.02061440588453306</v>
       </c>
       <c r="D61">
-        <v>0.01381991470187548</v>
+        <v>-0.002158893811995848</v>
       </c>
       <c r="E61">
-        <v>-0.04576840124131566</v>
+        <v>0.03843217670075284</v>
       </c>
       <c r="F61">
-        <v>0.02676797257710286</v>
+        <v>-0.02664362703447891</v>
       </c>
       <c r="G61">
-        <v>-0.01602892201644944</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.007587631147679449</v>
+      </c>
+      <c r="H61">
+        <v>0.004915209470813983</v>
+      </c>
+      <c r="I61">
+        <v>0.03808315573611341</v>
+      </c>
+      <c r="J61">
+        <v>-0.01286343517005223</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04100082731948911</v>
+        <v>0.02790670188267847</v>
       </c>
       <c r="C63">
-        <v>-0.007908043704060319</v>
+        <v>0.01446043142686482</v>
       </c>
       <c r="D63">
-        <v>-0.01131053692702622</v>
+        <v>-0.01235734463102078</v>
       </c>
       <c r="E63">
-        <v>-0.03747389598261974</v>
+        <v>0.02415368761379158</v>
       </c>
       <c r="F63">
-        <v>0.009519885843184804</v>
+        <v>-0.02072956667439212</v>
       </c>
       <c r="G63">
-        <v>0.0179238417770545</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.004026037035927348</v>
+      </c>
+      <c r="H63">
+        <v>0.04636267615799644</v>
+      </c>
+      <c r="I63">
+        <v>-0.03508307932635432</v>
+      </c>
+      <c r="J63">
+        <v>0.02737113152436812</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.09087532970217989</v>
+        <v>0.06533765601141039</v>
       </c>
       <c r="C64">
-        <v>0.03090195203058109</v>
+        <v>0.04014670083959395</v>
       </c>
       <c r="D64">
-        <v>-0.05230712026287176</v>
+        <v>-0.03668287556364047</v>
       </c>
       <c r="E64">
-        <v>-0.0568252198299289</v>
+        <v>0.01408595736613632</v>
       </c>
       <c r="F64">
-        <v>0.09683367374339975</v>
+        <v>-0.07214751600738922</v>
       </c>
       <c r="G64">
-        <v>-0.06709631822270942</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.0657297376962918</v>
+      </c>
+      <c r="H64">
+        <v>-0.009072610216509262</v>
+      </c>
+      <c r="I64">
+        <v>-0.01914857894429702</v>
+      </c>
+      <c r="J64">
+        <v>0.07303398806139258</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01469764102456905</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.003524082075494599</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.0004622206432959672</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.003793076966913365</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.00166758022472453</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.01952239640228814</v>
+      </c>
+      <c r="H65">
+        <v>-0.001393971843963485</v>
+      </c>
+      <c r="I65">
+        <v>0.003572243061411011</v>
+      </c>
+      <c r="J65">
+        <v>0.000684600266691511</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.098849658298896</v>
+        <v>0.07053546781674443</v>
       </c>
       <c r="C66">
-        <v>0.0195911613017302</v>
+        <v>0.04953230811310817</v>
       </c>
       <c r="D66">
-        <v>-0.03085196216195975</v>
+        <v>-0.0434761208204597</v>
       </c>
       <c r="E66">
-        <v>-0.08035993094619535</v>
+        <v>0.06665950385042398</v>
       </c>
       <c r="F66">
-        <v>0.04846680487122091</v>
+        <v>-0.04407083056138814</v>
       </c>
       <c r="G66">
-        <v>-0.0007387614224693783</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.01278762874672652</v>
+      </c>
+      <c r="H66">
+        <v>0.01101138338735958</v>
+      </c>
+      <c r="I66">
+        <v>0.04802772352229476</v>
+      </c>
+      <c r="J66">
+        <v>0.03714683007696992</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.06114675109293772</v>
+        <v>0.04080660214851981</v>
       </c>
       <c r="C67">
-        <v>-0.01967805871759</v>
+        <v>-0.00684680282441907</v>
       </c>
       <c r="D67">
-        <v>-0.009382265927979703</v>
+        <v>-0.00588389841728556</v>
       </c>
       <c r="E67">
-        <v>-0.02660289807834518</v>
+        <v>0.02817115953282698</v>
       </c>
       <c r="F67">
-        <v>0.008948381624386279</v>
+        <v>-0.02827239351638556</v>
       </c>
       <c r="G67">
-        <v>0.03311517235174147</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.02836706955507305</v>
+      </c>
+      <c r="H67">
+        <v>0.004714154613283702</v>
+      </c>
+      <c r="I67">
+        <v>0.03665385725384614</v>
+      </c>
+      <c r="J67">
+        <v>-0.01074948209854062</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.001224412500368687</v>
+        <v>0.03695063742317042</v>
       </c>
       <c r="C68">
-        <v>-0.2444262069382671</v>
+        <v>-0.2339998928039767</v>
       </c>
       <c r="D68">
-        <v>0.00716363959257982</v>
+        <v>-0.0008035350990574643</v>
       </c>
       <c r="E68">
-        <v>-0.03228154236966896</v>
+        <v>0.0486966929070889</v>
       </c>
       <c r="F68">
-        <v>-0.002888692196886325</v>
+        <v>-0.01922383698071211</v>
       </c>
       <c r="G68">
-        <v>-0.01254438335351912</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.007331504390483829</v>
+      </c>
+      <c r="H68">
+        <v>-0.02578330169609432</v>
+      </c>
+      <c r="I68">
+        <v>-0.1695486278313664</v>
+      </c>
+      <c r="J68">
+        <v>-0.0153818400550257</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.06682046263205255</v>
+        <v>0.07013423620504497</v>
       </c>
       <c r="C69">
-        <v>0.005754498926151194</v>
+        <v>0.0156122120857123</v>
       </c>
       <c r="D69">
-        <v>-0.02836668041176489</v>
+        <v>-0.02991592183226113</v>
       </c>
       <c r="E69">
-        <v>0.002774330985830293</v>
+        <v>0.00733580362215466</v>
       </c>
       <c r="F69">
-        <v>-0.0003902667628506418</v>
+        <v>0.001665801532665161</v>
       </c>
       <c r="G69">
-        <v>0.02155108188781086</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02093342120112511</v>
+      </c>
+      <c r="H69">
+        <v>0.04730990424079373</v>
+      </c>
+      <c r="I69">
+        <v>-0.0005426034367557236</v>
+      </c>
+      <c r="J69">
+        <v>-0.002446021924777912</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.003904869620491494</v>
+        <v>0.04073272015380704</v>
       </c>
       <c r="C71">
-        <v>-0.2554474300742552</v>
+        <v>-0.2470732031305332</v>
       </c>
       <c r="D71">
-        <v>0.01059891476498947</v>
+        <v>0.01895850261628751</v>
       </c>
       <c r="E71">
-        <v>-0.06249180807476276</v>
+        <v>0.07946644660469164</v>
       </c>
       <c r="F71">
-        <v>0.01904793777194316</v>
+        <v>-0.01493265610083199</v>
       </c>
       <c r="G71">
-        <v>-0.1015950187434097</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01916120128727562</v>
+      </c>
+      <c r="H71">
+        <v>-0.04072157065682168</v>
+      </c>
+      <c r="I71">
+        <v>-0.1443025601787056</v>
+      </c>
+      <c r="J71">
+        <v>-0.02473155899486546</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1140271222796344</v>
+        <v>0.1155435859880509</v>
       </c>
       <c r="C72">
-        <v>-0.01722746512497856</v>
+        <v>0.004793539658860565</v>
       </c>
       <c r="D72">
-        <v>-0.02661147984525105</v>
+        <v>-0.05577150916617939</v>
       </c>
       <c r="E72">
-        <v>-0.08645113311034643</v>
+        <v>0.06277445874875982</v>
       </c>
       <c r="F72">
-        <v>0.0160028099135839</v>
+        <v>-0.06439204451038257</v>
       </c>
       <c r="G72">
-        <v>0.04162359803110243</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.0309247950335698</v>
+      </c>
+      <c r="H72">
+        <v>-0.003572677082293769</v>
+      </c>
+      <c r="I72">
+        <v>0.01224598247954255</v>
+      </c>
+      <c r="J72">
+        <v>-0.1185603631814461</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2795092732031766</v>
+        <v>0.2745650239093115</v>
       </c>
       <c r="C73">
-        <v>-0.2097118854415501</v>
+        <v>-0.1099339219872439</v>
       </c>
       <c r="D73">
-        <v>0.04404640815737138</v>
+        <v>0.00605623972732607</v>
       </c>
       <c r="E73">
-        <v>-0.3021551805324548</v>
+        <v>0.3257964110222222</v>
       </c>
       <c r="F73">
-        <v>0.09197412133079406</v>
+        <v>-0.1192582527537484</v>
       </c>
       <c r="G73">
-        <v>-0.4074438006730843</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1059306135534179</v>
+      </c>
+      <c r="H73">
+        <v>-0.4396479192434112</v>
+      </c>
+      <c r="I73">
+        <v>0.3571006094725717</v>
+      </c>
+      <c r="J73">
+        <v>-0.09334062283743799</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1568493783898978</v>
+        <v>0.1515539033540148</v>
       </c>
       <c r="C74">
-        <v>-0.006438303691616594</v>
+        <v>0.0184534260348586</v>
       </c>
       <c r="D74">
-        <v>-0.05034629340273906</v>
+        <v>-0.04686802016460839</v>
       </c>
       <c r="E74">
-        <v>-0.006646766290644438</v>
+        <v>-0.02927450882833394</v>
       </c>
       <c r="F74">
-        <v>-0.04353652127138785</v>
+        <v>0.02582988597368891</v>
       </c>
       <c r="G74">
-        <v>-0.01383213601984956</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01480669141980132</v>
+      </c>
+      <c r="H74">
+        <v>-0.01838076993586562</v>
+      </c>
+      <c r="I74">
+        <v>0.009852372675259629</v>
+      </c>
+      <c r="J74">
+        <v>0.09434788049671176</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2351318877398336</v>
+        <v>0.24350164039049</v>
       </c>
       <c r="C75">
-        <v>-0.01196668044364994</v>
+        <v>0.01974269167890729</v>
       </c>
       <c r="D75">
-        <v>-0.06940639924807766</v>
+        <v>-0.1009881117774975</v>
       </c>
       <c r="E75">
-        <v>0.1149981160253397</v>
+        <v>-0.09450209830670563</v>
       </c>
       <c r="F75">
-        <v>-0.06580457076025813</v>
+        <v>0.09105900054977231</v>
       </c>
       <c r="G75">
-        <v>-0.02148675298113078</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.006802942826408216</v>
+      </c>
+      <c r="H75">
+        <v>-0.01873839463069962</v>
+      </c>
+      <c r="I75">
+        <v>-0.05273838628153172</v>
+      </c>
+      <c r="J75">
+        <v>0.1176283368914538</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2412815504959622</v>
+        <v>0.2626754560829813</v>
       </c>
       <c r="C76">
-        <v>-0.0131516536546923</v>
+        <v>0.01603037446331783</v>
       </c>
       <c r="D76">
-        <v>-0.1110583235548028</v>
+        <v>-0.1282445009470862</v>
       </c>
       <c r="E76">
-        <v>0.09134750570635632</v>
+        <v>-0.1339078494109362</v>
       </c>
       <c r="F76">
-        <v>-0.07265645300271263</v>
+        <v>0.09229900690492562</v>
       </c>
       <c r="G76">
-        <v>-0.03384427410074326</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.04242098948796733</v>
+      </c>
+      <c r="H76">
+        <v>-0.02582682213103701</v>
+      </c>
+      <c r="I76">
+        <v>0.02402363326876083</v>
+      </c>
+      <c r="J76">
+        <v>0.1398032727222266</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1286149531571526</v>
+        <v>0.1296051728294141</v>
       </c>
       <c r="C77">
-        <v>0.01949806511019425</v>
+        <v>0.05052557772628882</v>
       </c>
       <c r="D77">
-        <v>0.07694272915445015</v>
+        <v>0.04769788110736496</v>
       </c>
       <c r="E77">
-        <v>-0.1631043073161846</v>
+        <v>0.1167786272569059</v>
       </c>
       <c r="F77">
-        <v>0.01304631930802941</v>
+        <v>-0.1245784954056838</v>
       </c>
       <c r="G77">
-        <v>0.1586596752850425</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.02502226633812093</v>
+      </c>
+      <c r="H77">
+        <v>0.1803482675514325</v>
+      </c>
+      <c r="I77">
+        <v>-0.1628539704393506</v>
+      </c>
+      <c r="J77">
+        <v>0.09842908155523027</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.09550819000274414</v>
+        <v>0.08930163336536841</v>
       </c>
       <c r="C78">
-        <v>0.03224730232753242</v>
+        <v>0.05765658291967769</v>
       </c>
       <c r="D78">
-        <v>0.02525579578961218</v>
+        <v>8.672152526748417e-05</v>
       </c>
       <c r="E78">
-        <v>-0.06880346497102668</v>
+        <v>0.05000943719088527</v>
       </c>
       <c r="F78">
-        <v>0.01436584636845483</v>
+        <v>-0.07150971921428263</v>
       </c>
       <c r="G78">
-        <v>-0.01733107260972727</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.005294906986509512</v>
+      </c>
+      <c r="H78">
+        <v>0.02148581113214166</v>
+      </c>
+      <c r="I78">
+        <v>-0.02903590525983151</v>
+      </c>
+      <c r="J78">
+        <v>0.01904602300168981</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.07587005616643271</v>
+        <v>0.119177863637913</v>
       </c>
       <c r="C80">
-        <v>-0.005449967821899516</v>
+        <v>-0.1226499376494223</v>
       </c>
       <c r="D80">
-        <v>0.008157697974633907</v>
+        <v>0.2034382545464021</v>
       </c>
       <c r="E80">
-        <v>-0.002166257008017391</v>
+        <v>-0.6352857260043825</v>
       </c>
       <c r="F80">
-        <v>-0.05442809751854064</v>
+        <v>-0.6962371652368907</v>
       </c>
       <c r="G80">
-        <v>0.2002213096909127</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.01013998794200094</v>
+      </c>
+      <c r="H80">
+        <v>-0.1183355682503406</v>
+      </c>
+      <c r="I80">
+        <v>0.07091720616078298</v>
+      </c>
+      <c r="J80">
+        <v>-0.08245276281102693</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1606325026677329</v>
+        <v>0.1734969720156191</v>
       </c>
       <c r="C81">
-        <v>-0.01225773828997204</v>
+        <v>0.004861927336671372</v>
       </c>
       <c r="D81">
-        <v>-0.0600189307802979</v>
+        <v>-0.08352476981646072</v>
       </c>
       <c r="E81">
-        <v>0.113593273644685</v>
+        <v>-0.1073704499842096</v>
       </c>
       <c r="F81">
-        <v>-0.09075723367870693</v>
+        <v>0.09587687725686539</v>
       </c>
       <c r="G81">
-        <v>-0.01734740422223162</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.02256808644226051</v>
+      </c>
+      <c r="H81">
+        <v>-0.01582922058768036</v>
+      </c>
+      <c r="I81">
+        <v>-0.02350152025435854</v>
+      </c>
+      <c r="J81">
+        <v>0.06660435127552133</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.0823981127287952</v>
+        <v>0.06403273813945215</v>
       </c>
       <c r="C83">
-        <v>0.03369079123992429</v>
+        <v>0.04177246981052832</v>
       </c>
       <c r="D83">
-        <v>0.09105843309304923</v>
+        <v>0.03922451704043628</v>
       </c>
       <c r="E83">
-        <v>-0.01952590478969403</v>
+        <v>0.05378703875134126</v>
       </c>
       <c r="F83">
-        <v>0.06315216008023046</v>
+        <v>-0.02134068903016768</v>
       </c>
       <c r="G83">
-        <v>0.03455781176345481</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04529646685640096</v>
+      </c>
+      <c r="H83">
+        <v>0.04229357018725967</v>
+      </c>
+      <c r="I83">
+        <v>-0.02757220829557116</v>
+      </c>
+      <c r="J83">
+        <v>0.0865976005781932</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2417654753309436</v>
+        <v>0.2559211311076853</v>
       </c>
       <c r="C85">
-        <v>0.05006784646027417</v>
+        <v>0.05528243192770279</v>
       </c>
       <c r="D85">
-        <v>-0.06442811329774563</v>
+        <v>-0.08984668359267051</v>
       </c>
       <c r="E85">
-        <v>0.1330050752159779</v>
+        <v>-0.1346455155397261</v>
       </c>
       <c r="F85">
-        <v>-0.06340352484136634</v>
+        <v>0.0902929435200179</v>
       </c>
       <c r="G85">
-        <v>0.006178846987696806</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.0001552821435400699</v>
+      </c>
+      <c r="H85">
+        <v>0.02277640766026808</v>
+      </c>
+      <c r="I85">
+        <v>-0.03717432132806287</v>
+      </c>
+      <c r="J85">
+        <v>0.1453379950876841</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04745465226239103</v>
+        <v>0.02725111495701238</v>
       </c>
       <c r="C86">
-        <v>0.03604023864735462</v>
+        <v>0.0417479344200833</v>
       </c>
       <c r="D86">
-        <v>-0.001110352703204796</v>
+        <v>-0.004509367443752189</v>
       </c>
       <c r="E86">
-        <v>-0.0524728483102418</v>
+        <v>0.03114020649682775</v>
       </c>
       <c r="F86">
-        <v>-0.004180241501125732</v>
+        <v>-0.06022125144060774</v>
       </c>
       <c r="G86">
-        <v>0.03359878265494157</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.0006967793946686186</v>
+      </c>
+      <c r="H86">
+        <v>0.04940369861833475</v>
+      </c>
+      <c r="I86">
+        <v>-0.05460284864961572</v>
+      </c>
+      <c r="J86">
+        <v>-0.003551109025996235</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.03247117635865607</v>
+        <v>0.03885525652049374</v>
       </c>
       <c r="C87">
-        <v>-0.0565401736950141</v>
+        <v>-0.02265159871449157</v>
       </c>
       <c r="D87">
-        <v>-0.01464352396534208</v>
+        <v>-0.005036182167270363</v>
       </c>
       <c r="E87">
-        <v>-0.05265317961096602</v>
+        <v>0.06854757423211069</v>
       </c>
       <c r="F87">
-        <v>0.04812340572065982</v>
+        <v>-0.06024797282143166</v>
       </c>
       <c r="G87">
-        <v>-0.1230069823397173</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02506656851613522</v>
+      </c>
+      <c r="H87">
+        <v>-0.009942309367744116</v>
+      </c>
+      <c r="I87">
+        <v>0.01697243241672858</v>
+      </c>
+      <c r="J87">
+        <v>-0.07691685172712272</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.03866992615878717</v>
+        <v>0.0254275888757103</v>
       </c>
       <c r="C88">
-        <v>0.02500337762388947</v>
+        <v>0.01672382761621727</v>
       </c>
       <c r="D88">
-        <v>-0.008500917489930785</v>
+        <v>-0.01236789572121047</v>
       </c>
       <c r="E88">
-        <v>0.005297408779527537</v>
+        <v>-0.02229866426758581</v>
       </c>
       <c r="F88">
-        <v>-0.01555310052557099</v>
+        <v>-0.01608339251233143</v>
       </c>
       <c r="G88">
-        <v>0.04771936784517378</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02185286975331075</v>
+      </c>
+      <c r="H88">
+        <v>0.04350795557737713</v>
+      </c>
+      <c r="I88">
+        <v>0.0238518918457375</v>
+      </c>
+      <c r="J88">
+        <v>-0.01839849449584686</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.0141275370541389</v>
+        <v>0.05864648191776686</v>
       </c>
       <c r="C89">
-        <v>-0.4249998240558843</v>
+        <v>-0.394717114893271</v>
       </c>
       <c r="D89">
-        <v>0.09932919798443374</v>
+        <v>0.04413840421139641</v>
       </c>
       <c r="E89">
-        <v>0.03917317005482907</v>
+        <v>0.0709384681724186</v>
       </c>
       <c r="F89">
-        <v>0.02792113156507088</v>
+        <v>0.0287963670656693</v>
       </c>
       <c r="G89">
-        <v>0.03997772189637397</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.07308008780161214</v>
+      </c>
+      <c r="H89">
+        <v>0.002817067685980575</v>
+      </c>
+      <c r="I89">
+        <v>-0.2923489815906307</v>
+      </c>
+      <c r="J89">
+        <v>0.03242806304876213</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.01316645978597854</v>
+        <v>0.03595349465484529</v>
       </c>
       <c r="C90">
-        <v>-0.3072500207706643</v>
+        <v>-0.3330742525062522</v>
       </c>
       <c r="D90">
-        <v>0.02562276771862533</v>
+        <v>0.02717073534457245</v>
       </c>
       <c r="E90">
-        <v>-0.02637919146501812</v>
+        <v>0.04050809439259446</v>
       </c>
       <c r="F90">
-        <v>0.009816464456204405</v>
+        <v>-0.01231427573450163</v>
       </c>
       <c r="G90">
-        <v>-0.06724932273952834</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02127555990134104</v>
+      </c>
+      <c r="H90">
+        <v>-0.0332307988575058</v>
+      </c>
+      <c r="I90">
+        <v>-0.20946113804342</v>
+      </c>
+      <c r="J90">
+        <v>-0.005442644547365495</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.3079973989730042</v>
+        <v>0.3178467963494032</v>
       </c>
       <c r="C91">
-        <v>0.02160884173732014</v>
+        <v>0.04051181592738447</v>
       </c>
       <c r="D91">
-        <v>-0.08106977959800554</v>
+        <v>-0.1019721596382816</v>
       </c>
       <c r="E91">
-        <v>0.2584809703913987</v>
+        <v>-0.2163689745206221</v>
       </c>
       <c r="F91">
-        <v>-0.1721044486629137</v>
+        <v>0.1902552529646074</v>
       </c>
       <c r="G91">
-        <v>0.06620095540291451</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.04008942591177914</v>
+      </c>
+      <c r="H91">
+        <v>-0.01927715986897549</v>
+      </c>
+      <c r="I91">
+        <v>-0.07124909454566193</v>
+      </c>
+      <c r="J91">
+        <v>0.2642297226784652</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.02690012977213034</v>
+        <v>0.07554083857012775</v>
       </c>
       <c r="C92">
-        <v>-0.4381405376481338</v>
+        <v>-0.4601524867767525</v>
       </c>
       <c r="D92">
-        <v>0.1883843835895147</v>
+        <v>0.07165472164300976</v>
       </c>
       <c r="E92">
-        <v>0.1244891049960908</v>
+        <v>-0.0764155280725328</v>
       </c>
       <c r="F92">
-        <v>-0.1263084026884292</v>
+        <v>0.1424877399906878</v>
       </c>
       <c r="G92">
-        <v>0.5027651177169055</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.01591624070582577</v>
+      </c>
+      <c r="H92">
+        <v>0.5395846066362646</v>
+      </c>
+      <c r="I92">
+        <v>0.6510552452314781</v>
+      </c>
+      <c r="J92">
+        <v>0.1057004209100996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.02319835177217049</v>
+        <v>0.03716941756896518</v>
       </c>
       <c r="C93">
-        <v>-0.3675322974078382</v>
+        <v>-0.4037374938564527</v>
       </c>
       <c r="D93">
-        <v>0.07029776717807033</v>
+        <v>0.05295265877657011</v>
       </c>
       <c r="E93">
-        <v>0.05352884654519584</v>
+        <v>0.03087270402552577</v>
       </c>
       <c r="F93">
-        <v>-0.02471711038757774</v>
+        <v>0.05353417231782518</v>
       </c>
       <c r="G93">
-        <v>0.004441883388512157</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.04046405929906403</v>
+      </c>
+      <c r="H93">
+        <v>-0.04091045160293304</v>
+      </c>
+      <c r="I93">
+        <v>-0.1997553998576507</v>
+      </c>
+      <c r="J93">
+        <v>0.01821028741615578</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.295934734409364</v>
+        <v>0.3210970674471626</v>
       </c>
       <c r="C94">
-        <v>-0.03524435719606109</v>
+        <v>-0.005125527609941863</v>
       </c>
       <c r="D94">
-        <v>-0.05646670686885356</v>
+        <v>-0.1515520640547211</v>
       </c>
       <c r="E94">
-        <v>0.354215722510719</v>
+        <v>-0.2382528588141509</v>
       </c>
       <c r="F94">
-        <v>-0.4505173665085445</v>
+        <v>0.2845029325531991</v>
       </c>
       <c r="G94">
-        <v>-0.08577299832006201</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1903557701256049</v>
+      </c>
+      <c r="H94">
+        <v>0.05539760462478818</v>
+      </c>
+      <c r="I94">
+        <v>-0.1426916870865914</v>
+      </c>
+      <c r="J94">
+        <v>-0.4458192168456732</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1995268996536851</v>
+        <v>0.1437429699710543</v>
       </c>
       <c r="C95">
-        <v>-0.03402518659338222</v>
+        <v>0.05863159198175433</v>
       </c>
       <c r="D95">
-        <v>-0.03656961114938378</v>
+        <v>-0.04583688736624697</v>
       </c>
       <c r="E95">
-        <v>0.4711180345188248</v>
+        <v>-0.004662554818877603</v>
       </c>
       <c r="F95">
-        <v>0.7983584090996384</v>
+        <v>0.0583490725713013</v>
       </c>
       <c r="G95">
-        <v>0.1053851012920224</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.9331459506512765</v>
+      </c>
+      <c r="H95">
+        <v>-0.03927903354990264</v>
+      </c>
+      <c r="I95">
+        <v>0.05793911690280559</v>
+      </c>
+      <c r="J95">
+        <v>-0.219290118824299</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2162920319464624</v>
+        <v>0.2081576504433419</v>
       </c>
       <c r="C98">
-        <v>-0.13416181706074</v>
+        <v>-0.06739776255711973</v>
       </c>
       <c r="D98">
-        <v>0.03591711695782125</v>
+        <v>0.01334673406341556</v>
       </c>
       <c r="E98">
-        <v>-0.1043205690253582</v>
+        <v>0.1921061934351769</v>
       </c>
       <c r="F98">
-        <v>0.05399575264323299</v>
+        <v>-0.03017791191886855</v>
       </c>
       <c r="G98">
-        <v>-0.2488955335617898</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.04790984591587568</v>
+      </c>
+      <c r="H98">
+        <v>-0.2995670949031283</v>
+      </c>
+      <c r="I98">
+        <v>0.2112431637992075</v>
+      </c>
+      <c r="J98">
+        <v>0.008785750451514283</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.01974239918124965</v>
+        <v>0.01236056280288427</v>
       </c>
       <c r="C101">
-        <v>0.01833229689809955</v>
+        <v>0.02842808271813013</v>
       </c>
       <c r="D101">
-        <v>-0.02078139653083297</v>
+        <v>-0.02766388076160575</v>
       </c>
       <c r="E101">
-        <v>-0.03382144879103797</v>
+        <v>0.0326711543055559</v>
       </c>
       <c r="F101">
-        <v>0.0103313698052464</v>
+        <v>-0.05878259718952462</v>
       </c>
       <c r="G101">
-        <v>0.04866022045713205</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.01053401616806673</v>
+      </c>
+      <c r="H101">
+        <v>0.1157555029869972</v>
+      </c>
+      <c r="I101">
+        <v>-0.003800268260931483</v>
+      </c>
+      <c r="J101">
+        <v>-0.1495962324394657</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1201966842656342</v>
+        <v>0.1226860101021252</v>
       </c>
       <c r="C102">
-        <v>0.005126975196385464</v>
+        <v>0.02602715982521889</v>
       </c>
       <c r="D102">
-        <v>-0.05032626636834083</v>
+        <v>-0.05387595175350054</v>
       </c>
       <c r="E102">
-        <v>0.07761727814854205</v>
+        <v>-0.07864041218604473</v>
       </c>
       <c r="F102">
-        <v>-0.002658031396168243</v>
+        <v>0.04507412393946476</v>
       </c>
       <c r="G102">
-        <v>-0.0001481355811853111</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.02630293727729195</v>
+      </c>
+      <c r="H102">
+        <v>-0.007998343266870571</v>
+      </c>
+      <c r="I102">
+        <v>-0.04093631990138879</v>
+      </c>
+      <c r="J102">
+        <v>0.04978013685715432</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01707029507556655</v>
+        <v>0.02572019668131123</v>
       </c>
       <c r="C103">
-        <v>-0.001964374889587429</v>
+        <v>0.001712016197624779</v>
       </c>
       <c r="D103">
-        <v>-0.01817008781058959</v>
+        <v>-0.01813311581079574</v>
       </c>
       <c r="E103">
-        <v>0.02758482076979577</v>
+        <v>-0.02999806411720946</v>
       </c>
       <c r="F103">
-        <v>-0.02012467077465544</v>
+        <v>0.001976876562600966</v>
       </c>
       <c r="G103">
-        <v>-0.0114644548118654</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01446156181718904</v>
+      </c>
+      <c r="H103">
+        <v>0.0002616740870739846</v>
+      </c>
+      <c r="I103">
+        <v>-0.02539279101044105</v>
+      </c>
+      <c r="J103">
+        <v>0.006582692634041546</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
